--- a/template/Crypto.xlsx
+++ b/template/Crypto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CriptoAlerts\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CriptoAlertsGit\CryptoAlerts\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66813397-30FF-4A48-AC62-CE722BC7CC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACE937-7644-4BFD-85E2-394496E84473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Copy" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$J$1:$J$67</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -490,19 +493,19 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1089,6 +1092,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J67" xr:uid="{707E7CA2-7E2E-4A54-9AB7-C1E2141AB7E2}"/>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",I1)))</formula>

--- a/template/Crypto.xlsx
+++ b/template/Crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CriptoAlertsGit\CryptoAlerts\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACE937-7644-4BFD-85E2-394496E84473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F3AA66-967C-4FE4-AD36-1855FF8DB5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Copy" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$J$1:$J$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$K$1:$K$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Coin</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Alerta</t>
+  </si>
+  <si>
+    <t>Symbol</t>
   </si>
 </sst>
 </file>
@@ -490,62 +493,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="46" width="9.140625" style="2" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="47" width="9.140625" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -556,12 +563,13 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K33" si="0">E2+(E2*20%)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="5"/>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L33" si="0">F2+(F2*20%)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -572,12 +580,13 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="5"/>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -588,12 +597,13 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="5"/>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -604,12 +614,13 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="6"/>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -620,12 +631,13 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="6"/>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -636,12 +648,13 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="6"/>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -652,12 +665,13 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="6"/>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -668,12 +682,13 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="6"/>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -684,12 +699,13 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="6"/>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -700,12 +716,13 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="6"/>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -716,12 +733,13 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="6"/>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -732,12 +750,13 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="6"/>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -748,12 +767,13 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -764,12 +784,13 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="6"/>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -780,335 +801,336 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="4">
-        <f t="shared" ref="K34:K67" si="1">E34+(E34*20%)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K53" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K54" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K55" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K56" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K57" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K58" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K59" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K60" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K61" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K62" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K63" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K64" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K67" s="4">
+      <c r="K16" s="6"/>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="4">
+        <f t="shared" ref="L34:L67" si="1">F34+(F34*20%)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L62" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L63" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L65" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L67" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J67" xr:uid="{707E7CA2-7E2E-4A54-9AB7-C1E2141AB7E2}"/>
-  <conditionalFormatting sqref="I1:I1048576">
+  <autoFilter ref="K1:K67" xr:uid="{707E7CA2-7E2E-4A54-9AB7-C1E2141AB7E2}"/>
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ALTA">
-      <formula>NOT(ISERROR(SEARCH("ALTA",I1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="ALERTA">
-      <formula>NOT(ISERROR(SEARCH("ALERTA",J1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="ALERTA">
-      <formula>NOT(ISERROR(SEARCH("ALERTA",J1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2" operator="containsText" text="ALERTA">
-      <formula>NOT(ISERROR(SEARCH("ALERTA",J1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/Crypto.xlsx
+++ b/template/Crypto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CriptoAlertsGit\CryptoAlerts\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CryptoAlerts\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F3AA66-967C-4FE4-AD36-1855FF8DB5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7E096-F83F-4F78-9CA1-4C4469C90627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,8 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +507,10 @@
     <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" style="4" bestFit="1" customWidth="1"/>

--- a/template/Crypto.xlsx
+++ b/template/Crypto.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CryptoAlerts\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7E096-F83F-4F78-9CA1-4C4469C90627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D1910-B01C-45E1-AFF7-838F1D7C39F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Copy" sheetId="2" r:id="rId2"/>
+    <sheet name="Trends" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$K$1:$K$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Trends!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Coin</t>
   </si>
@@ -156,7 +157,71 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -495,9 +560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,17 +1182,17 @@
   </sheetData>
   <autoFilter ref="K1:K67" xr:uid="{707E7CA2-7E2E-4A54-9AB7-C1E2141AB7E2}"/>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="ALERTA">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="ALERTA">
       <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="ALERTA">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="ALERTA">
       <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2" operator="containsText" text="ALERTA">
@@ -1141,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,293 +1234,125 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K16" si="0">E2+(E2*20%)</f>
-        <v>0</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ALTA">
-      <formula>NOT(ISERROR(SEARCH("ALTA",I1)))</formula>
+  <autoFilter ref="A1:K1" xr:uid="{02AD9507-C566-4BC8-9E31-C10481B84CBC}"/>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="ALTA">
+      <formula>NOT(ISERROR(SEARCH("ALTA",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="ALERTA">
+      <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="ALERTA">
+      <formula>NOT(ISERROR(SEARCH("ALERTA",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="10" operator="containsText" text="ALERTA">
+      <formula>NOT(ISERROR(SEARCH("ALERTA",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="ALERTA">
-      <formula>NOT(ISERROR(SEARCH("ALERTA",J1)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="ALTA">
+      <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="ALERTA">
+      <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="6" operator="containsText" text="ALERTA">
+      <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ALTA">
+      <formula>NOT(ISERROR(SEARCH("ALTA",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="alerta">
+      <formula>NOT(ISERROR(SEARCH("alerta",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ALERTA">
-      <formula>NOT(ISERROR(SEARCH("ALERTA",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="2" operator="containsText" text="ALERTA">
-      <formula>NOT(ISERROR(SEARCH("ALERTA",J1)))</formula>
+    <cfRule type="containsText" priority="3" operator="containsText" text="ALTA">
+      <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="ALTA">
+      <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/Crypto.xlsx
+++ b/template/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CryptoAlerts\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D1910-B01C-45E1-AFF7-838F1D7C39F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA063CF-0A32-44BC-86E5-DBE009157330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>Valor segun Market cap</t>
   </si>
   <si>
-    <t>Diferencia Mercado</t>
-  </si>
-  <si>
     <t>Volumen Promedio 60 Dias</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Symbol</t>
+  </si>
+  <si>
+    <t>% de subida</t>
   </si>
 </sst>
 </file>
@@ -157,15 +157,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -188,17 +188,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -560,9 +549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K1"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +563,7 @@
     <col min="5" max="5" width="38.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -588,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -609,13 +598,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,17 +1171,17 @@
   </sheetData>
   <autoFilter ref="K1:K67" xr:uid="{707E7CA2-7E2E-4A54-9AB7-C1E2141AB7E2}"/>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="ALERTA">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ALERTA">
       <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="ALERTA">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ALERTA">
       <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2" operator="containsText" text="ALERTA">
@@ -1208,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1211,7 @@
     <col min="6" max="6" width="27.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="46" width="9.140625" style="2" customWidth="1"/>
@@ -1234,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1255,13 +1244,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,17 +1295,17 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{02AD9507-C566-4BC8-9E31-C10481B84CBC}"/>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="ALERTA">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="ALERTA">
       <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="ALERTA">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="ALERTA">
       <formula>NOT(ISERROR(SEARCH("ALERTA",J2)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="10" operator="containsText" text="ALERTA">
@@ -1324,12 +1313,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="ALERTA">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="ALERTA">
       <formula>NOT(ISERROR(SEARCH("ALERTA",K1)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="6" operator="containsText" text="ALERTA">
@@ -1348,7 +1337,7 @@
     <cfRule type="containsText" priority="3" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
